--- a/Literature_Review.xlsx
+++ b/Literature_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bsnra\Desktop\chandassu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52EC6E8-3E78-492B-859B-069E2E347BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641B37FF-73BE-4B7F-A057-1DA491C389FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>URL</t>
   </si>
@@ -67,13 +67,19 @@
   </si>
   <si>
     <t>Chandojnanam: A Sanskrit Meter Identification and Utilization System</t>
+  </si>
+  <si>
+    <t>https://chandamu.github.io/chandam.html</t>
+  </si>
+  <si>
+    <t>https://te.wikipedia.org/wiki/%E0%B0%A4%E0%B1%86%E0%B0%B2%E0%B1%81%E0%B0%97%E0%B1%81_%E0%B0%85%E0%B0%95%E0%B1%8D%E0%B0%B7%E0%B0%B0%E0%B0%BE%E0%B0%B2%E0%B1%81</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +92,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFA31515"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -108,9 +120,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="A21:B22"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,6 +474,16 @@
         <v>13</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
